--- a/DRAFT/testdata-xls.xlsx
+++ b/DRAFT/testdata-xls.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\NATLIB-CL1\DRAFT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{073DD3C0-89CE-4DBE-9B6C-2DB9F7F26F10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0A71BDD4-1793-4A27-B4D2-8E404BBE290B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4575" yWindow="1605" windowWidth="21600" windowHeight="11385" xr2:uid="{2ACD38B1-4A19-442B-B8E5-5F82186B7641}"/>
+    <workbookView xWindow="4575" yWindow="1605" windowWidth="21600" windowHeight="11385" xr2:uid="{FFBD7E68-B9B6-49A7-BF76-86BA87756534}"/>
   </bookViews>
   <sheets>
     <sheet name="testdata" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="14">
   <si>
     <t>e287edb4-f2d6-4528-ba35-774bf22e55b4</t>
   </si>
@@ -29,12 +29,48 @@
   </si>
   <si>
     <t>Claudia Sintia</t>
+  </si>
+  <si>
+    <t>Elizabeth Dior</t>
+  </si>
+  <si>
+    <t>Dr. Alan Bagus Prasetya</t>
+  </si>
+  <si>
+    <t>Ghina Assyifa</t>
+  </si>
+  <si>
+    <t>Salsabilla Anjani Rizki</t>
+  </si>
+  <si>
+    <t>9271060312000001</t>
+  </si>
+  <si>
+    <t>9204014804000002</t>
+  </si>
+  <si>
+    <t>9104224509000003</t>
+  </si>
+  <si>
+    <t>9104223107000004</t>
+  </si>
+  <si>
+    <t>9104224606000005</t>
+  </si>
+  <si>
+    <t>9104025209000006</t>
+  </si>
+  <si>
+    <t>7209061211900001</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
+  </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -512,9 +548,10 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -869,78 +906,140 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F84AC69B-F106-4151-AD6B-1E249B36805F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E6BE5CE-267B-4128-990C-75C5A191B774}">
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="3" width="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.28515625" customWidth="1"/>
+    <col min="4" max="4" width="29" customWidth="1"/>
+    <col min="5" max="5" width="37.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>1001</v>
       </c>
-      <c r="B1">
-        <v>9271060312000000</v>
-      </c>
-      <c r="C1">
-        <v>7209061211900000</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="B1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="1">
-        <v>45630</v>
-      </c>
-      <c r="F1" t="s">
-        <v>1</v>
+      <c r="F1" s="2">
+        <v>45536</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1002</v>
       </c>
-      <c r="B2">
-        <v>9204014804000000</v>
-      </c>
-      <c r="C2">
-        <v>3207192310600000</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="B2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="1">
-        <v>45631</v>
-      </c>
-      <c r="F2" t="s">
-        <v>2</v>
+      <c r="F2" s="2">
+        <v>45536</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1003</v>
       </c>
+      <c r="B3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F3" s="2">
+        <v>45536</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1004</v>
       </c>
+      <c r="B4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F4" s="2">
+        <v>45536</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1005</v>
       </c>
+      <c r="B5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F5" s="2">
+        <v>45536</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1006</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" t="s">
+        <v>0</v>
+      </c>
+      <c r="F6" s="2">
+        <v>45536</v>
       </c>
     </row>
   </sheetData>

--- a/DRAFT/testdata-xls.xlsx
+++ b/DRAFT/testdata-xls.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\NATLIB-CL1\DRAFT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0A71BDD4-1793-4A27-B4D2-8E404BBE290B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{484DE818-16F4-4DAB-907E-FD47F0871965}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4575" yWindow="1605" windowWidth="21600" windowHeight="11385" xr2:uid="{FFBD7E68-B9B6-49A7-BF76-86BA87756534}"/>
+    <workbookView xWindow="3525" yWindow="2355" windowWidth="21600" windowHeight="11385" xr2:uid="{FFBD7E68-B9B6-49A7-BF76-86BA87756534}"/>
   </bookViews>
   <sheets>
     <sheet name="testdata" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="15">
   <si>
     <t>e287edb4-f2d6-4528-ba35-774bf22e55b4</t>
   </si>
@@ -62,6 +62,9 @@
   </si>
   <si>
     <t>7209061211900001</t>
+  </si>
+  <si>
+    <t>6408130207800005</t>
   </si>
 </sst>
 </file>
@@ -69,7 +72,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
@@ -551,7 +554,7 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -907,16 +910,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E6BE5CE-267B-4128-990C-75C5A191B774}">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.28515625" customWidth="1"/>
+    <col min="3" max="3" width="22" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="29" customWidth="1"/>
     <col min="5" max="5" width="37.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.42578125" bestFit="1" customWidth="1"/>
@@ -924,7 +927,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1">
-        <v>1001</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>7</v>
@@ -939,12 +942,12 @@
         <v>0</v>
       </c>
       <c r="F1" s="2">
-        <v>45536</v>
+        <v>45539</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>1002</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>8</v>
@@ -959,12 +962,12 @@
         <v>0</v>
       </c>
       <c r="F2" s="2">
-        <v>45536</v>
+        <v>45539</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>1003</v>
+        <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>9</v>
@@ -973,18 +976,18 @@
         <v>3</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E3" t="s">
         <v>0</v>
       </c>
       <c r="F3" s="2">
-        <v>45536</v>
+        <v>45539</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>1004</v>
+        <v>0</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>10</v>
@@ -993,18 +996,18 @@
         <v>4</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E4" t="s">
         <v>0</v>
       </c>
       <c r="F4" s="2">
-        <v>45536</v>
+        <v>45539</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>1005</v>
+        <v>0</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>11</v>
@@ -1013,18 +1016,18 @@
         <v>5</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E5" t="s">
         <v>0</v>
       </c>
       <c r="F5" s="2">
-        <v>45536</v>
+        <v>45539</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>1006</v>
+        <v>0</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>12</v>
@@ -1033,13 +1036,253 @@
         <v>6</v>
       </c>
       <c r="D6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" t="s">
+        <v>0</v>
+      </c>
+      <c r="F6" s="2">
+        <v>45539</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>0</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" t="s">
+        <v>0</v>
+      </c>
+      <c r="F7" s="2">
+        <v>45540</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>0</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" t="s">
+        <v>0</v>
+      </c>
+      <c r="F8" s="2">
+        <v>45540</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>0</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" t="s">
+        <v>0</v>
+      </c>
+      <c r="F9" s="2">
+        <v>45540</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>0</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E6" t="s">
-        <v>0</v>
-      </c>
-      <c r="F6" s="2">
-        <v>45536</v>
+      <c r="E10" t="s">
+        <v>0</v>
+      </c>
+      <c r="F10" s="2">
+        <v>45540</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>0</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" t="s">
+        <v>0</v>
+      </c>
+      <c r="F11" s="2">
+        <v>45540</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>0</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F12" s="2">
+        <v>45540</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>0</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" t="s">
+        <v>0</v>
+      </c>
+      <c r="F13" s="2">
+        <v>45541</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>0</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" t="s">
+        <v>2</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>0</v>
+      </c>
+      <c r="F14" s="2">
+        <v>45541</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>0</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" t="s">
+        <v>3</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" t="s">
+        <v>0</v>
+      </c>
+      <c r="F15" s="2">
+        <v>45541</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>0</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" t="s">
+        <v>4</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E16" t="s">
+        <v>0</v>
+      </c>
+      <c r="F16" s="2">
+        <v>45541</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>0</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E17" t="s">
+        <v>0</v>
+      </c>
+      <c r="F17" s="2">
+        <v>45541</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>0</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E18" t="s">
+        <v>0</v>
+      </c>
+      <c r="F18" s="2">
+        <v>45541</v>
       </c>
     </row>
   </sheetData>

--- a/DRAFT/testdata-xls.xlsx
+++ b/DRAFT/testdata-xls.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\NATLIB-CL1\DRAFT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{484DE818-16F4-4DAB-907E-FD47F0871965}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E395FC14-C6CA-4FC5-A759-BE85F4AB304F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3525" yWindow="2355" windowWidth="21600" windowHeight="11385" xr2:uid="{FFBD7E68-B9B6-49A7-BF76-86BA87756534}"/>
   </bookViews>
@@ -20,10 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="15">
-  <si>
-    <t>e287edb4-f2d6-4528-ba35-774bf22e55b4</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="16">
   <si>
     <t>Ardianto Putra</t>
   </si>
@@ -65,6 +62,12 @@
   </si>
   <si>
     <t>6408130207800005</t>
+  </si>
+  <si>
+    <t>L70. 0</t>
+  </si>
+  <si>
+    <t>61becd6f-a241-4d69-bb11-c49e73f2be15</t>
   </si>
 </sst>
 </file>
@@ -74,7 +77,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -205,6 +208,12 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -910,10 +919,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E6BE5CE-267B-4128-990C-75C5A191B774}">
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -922,370 +931,425 @@
     <col min="3" max="3" width="22" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="29" customWidth="1"/>
     <col min="5" max="5" width="37.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="2">
+        <v>45546</v>
+      </c>
+      <c r="G1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="2">
+        <v>45546</v>
+      </c>
+      <c r="G2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" s="2">
-        <v>45539</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
+      <c r="E3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="2">
+        <v>45546</v>
+      </c>
+      <c r="G3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>0</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="2">
+        <v>45546</v>
+      </c>
+      <c r="G4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>0</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="2">
+        <v>45546</v>
+      </c>
+      <c r="G5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>0</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="2">
+        <v>45546</v>
+      </c>
+      <c r="G6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>0</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="2">
+        <v>45547</v>
+      </c>
+      <c r="G7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>0</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="2">
+        <v>45547</v>
+      </c>
+      <c r="G8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>0</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C9" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E2" t="s">
-        <v>0</v>
-      </c>
-      <c r="F2" s="2">
-        <v>45539</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>0</v>
-      </c>
-      <c r="B3" s="1" t="s">
+      <c r="E9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="2">
+        <v>45547</v>
+      </c>
+      <c r="G9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>0</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C10" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F3" s="2">
-        <v>45539</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>0</v>
-      </c>
-      <c r="B4" s="1" t="s">
+      <c r="D10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" s="2">
+        <v>45547</v>
+      </c>
+      <c r="G10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>0</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C11" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" t="s">
-        <v>0</v>
-      </c>
-      <c r="F4" s="2">
-        <v>45539</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>0</v>
-      </c>
-      <c r="B5" s="1" t="s">
+      <c r="D11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" s="2">
+        <v>45547</v>
+      </c>
+      <c r="G11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>0</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C12" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" t="s">
-        <v>0</v>
-      </c>
-      <c r="F5" s="2">
-        <v>45539</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>0</v>
-      </c>
-      <c r="B6" s="1" t="s">
+      <c r="D12" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C6" t="s">
+      <c r="E12" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12" s="2">
+        <v>45547</v>
+      </c>
+      <c r="G12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>0</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" t="s">
-        <v>0</v>
-      </c>
-      <c r="F6" s="2">
-        <v>45539</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>0</v>
-      </c>
-      <c r="B7" s="1" t="s">
+      <c r="C13" t="s">
+        <v>0</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>15</v>
+      </c>
+      <c r="F13" s="2">
+        <v>45548</v>
+      </c>
+      <c r="G13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>0</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C14" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" t="s">
-        <v>0</v>
-      </c>
-      <c r="F7" s="2">
-        <v>45540</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>0</v>
-      </c>
-      <c r="B8" s="1" t="s">
+      <c r="D14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" t="s">
+        <v>15</v>
+      </c>
+      <c r="F14" s="2">
+        <v>45548</v>
+      </c>
+      <c r="G14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>0</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C15" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" t="s">
-        <v>0</v>
-      </c>
-      <c r="F8" s="2">
-        <v>45540</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>0</v>
-      </c>
-      <c r="B9" s="1" t="s">
+      <c r="D15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" t="s">
+        <v>15</v>
+      </c>
+      <c r="F15" s="2">
+        <v>45548</v>
+      </c>
+      <c r="G15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>0</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C16" t="s">
         <v>3</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E9" t="s">
-        <v>0</v>
-      </c>
-      <c r="F9" s="2">
-        <v>45540</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>0</v>
-      </c>
-      <c r="B10" s="1" t="s">
+      <c r="D16" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F16" s="2">
+        <v>45548</v>
+      </c>
+      <c r="G16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>0</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C17" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D17" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17" t="s">
+        <v>15</v>
+      </c>
+      <c r="F17" s="2">
+        <v>45548</v>
+      </c>
+      <c r="G17" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>0</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E10" t="s">
-        <v>0</v>
-      </c>
-      <c r="F10" s="2">
-        <v>45540</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>0</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" t="s">
-        <v>5</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E11" t="s">
-        <v>0</v>
-      </c>
-      <c r="F11" s="2">
-        <v>45540</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>0</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" t="s">
-        <v>6</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E12" t="s">
-        <v>0</v>
-      </c>
-      <c r="F12" s="2">
-        <v>45540</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>0</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" t="s">
-        <v>1</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E13" t="s">
-        <v>0</v>
-      </c>
-      <c r="F13" s="2">
-        <v>45541</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>0</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" t="s">
-        <v>2</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E14" t="s">
-        <v>0</v>
-      </c>
-      <c r="F14" s="2">
-        <v>45541</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>0</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" t="s">
-        <v>3</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E15" t="s">
-        <v>0</v>
-      </c>
-      <c r="F15" s="2">
-        <v>45541</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>0</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" t="s">
-        <v>4</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E16" t="s">
-        <v>0</v>
-      </c>
-      <c r="F16" s="2">
-        <v>45541</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>0</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C17" t="s">
-        <v>5</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17" t="s">
-        <v>0</v>
-      </c>
-      <c r="F17" s="2">
-        <v>45541</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>0</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C18" t="s">
-        <v>6</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="E18" t="s">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="F18" s="2">
-        <v>45541</v>
+        <v>45548</v>
+      </c>
+      <c r="G18" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/DRAFT/testdata-xls.xlsx
+++ b/DRAFT/testdata-xls.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\NATLIB-CL1\DRAFT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E395FC14-C6CA-4FC5-A759-BE85F4AB304F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D131D08-A203-4437-857F-E94F3D07269B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3525" yWindow="2355" windowWidth="21600" windowHeight="11385" xr2:uid="{FFBD7E68-B9B6-49A7-BF76-86BA87756534}"/>
+    <workbookView xWindow="1470" yWindow="1470" windowWidth="25560" windowHeight="13920" xr2:uid="{FFBD7E68-B9B6-49A7-BF76-86BA87756534}"/>
   </bookViews>
   <sheets>
     <sheet name="testdata" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="23">
   <si>
     <t>Ardianto Putra</t>
   </si>
@@ -68,6 +68,27 @@
   </si>
   <si>
     <t>61becd6f-a241-4d69-bb11-c49e73f2be15</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>Nama Pasien</t>
+  </si>
+  <si>
+    <t>NIK Dokter</t>
+  </si>
+  <si>
+    <t>NIK</t>
+  </si>
+  <si>
+    <t>ID Satu Sehat Poliklinik</t>
+  </si>
+  <si>
+    <t>Tanggal Periksa</t>
+  </si>
+  <si>
+    <t>ICD</t>
   </si>
 </sst>
 </file>
@@ -219,7 +240,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -397,6 +418,12 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -560,10 +587,11 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -919,7 +947,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E6BE5CE-267B-4128-990C-75C5A191B774}">
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
@@ -935,26 +963,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F1" s="2">
-        <v>45546</v>
-      </c>
-      <c r="G1" t="s">
-        <v>14</v>
+      <c r="A1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -962,10 +990,10 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>12</v>
@@ -985,13 +1013,13 @@
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E3" t="s">
         <v>15</v>
@@ -1008,10 +1036,10 @@
         <v>0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>13</v>
@@ -1031,10 +1059,10 @@
         <v>0</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>13</v>
@@ -1054,10 +1082,10 @@
         <v>0</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>13</v>
@@ -1077,10 +1105,10 @@
         <v>0</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>13</v>
@@ -1089,7 +1117,7 @@
         <v>15</v>
       </c>
       <c r="F7" s="2">
-        <v>45547</v>
+        <v>45546</v>
       </c>
       <c r="G7" t="s">
         <v>14</v>
@@ -1100,10 +1128,10 @@
         <v>0</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>13</v>
@@ -1123,10 +1151,10 @@
         <v>0</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>13</v>
@@ -1146,13 +1174,13 @@
         <v>0</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E10" t="s">
         <v>15</v>
@@ -1169,13 +1197,13 @@
         <v>0</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E11" t="s">
         <v>15</v>
@@ -1192,13 +1220,13 @@
         <v>0</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C12" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E12" t="s">
         <v>15</v>
@@ -1215,10 +1243,10 @@
         <v>0</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C13" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>12</v>
@@ -1227,7 +1255,7 @@
         <v>15</v>
       </c>
       <c r="F13" s="2">
-        <v>45548</v>
+        <v>45547</v>
       </c>
       <c r="G13" t="s">
         <v>14</v>
@@ -1238,10 +1266,10 @@
         <v>0</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C14" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>12</v>
@@ -1261,10 +1289,10 @@
         <v>0</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C15" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>12</v>
@@ -1284,13 +1312,13 @@
         <v>0</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E16" t="s">
         <v>15</v>
@@ -1307,13 +1335,13 @@
         <v>0</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E17" t="s">
         <v>15</v>
@@ -1330,13 +1358,13 @@
         <v>0</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C18" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E18" t="s">
         <v>15</v>
@@ -1345,6 +1373,29 @@
         <v>45548</v>
       </c>
       <c r="G18" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>0</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E19" t="s">
+        <v>15</v>
+      </c>
+      <c r="F19" s="2">
+        <v>45548</v>
+      </c>
+      <c r="G19" t="s">
         <v>14</v>
       </c>
     </row>

--- a/DRAFT/testdata-xls.xlsx
+++ b/DRAFT/testdata-xls.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\NATLIB-CL1\DRAFT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D131D08-A203-4437-857F-E94F3D07269B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94B33A1D-BA71-4A35-AC91-1953A7FAC622}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1470" yWindow="1470" windowWidth="25560" windowHeight="13920" xr2:uid="{FFBD7E68-B9B6-49A7-BF76-86BA87756534}"/>
+    <workbookView xWindow="4545" yWindow="1905" windowWidth="21600" windowHeight="11385" xr2:uid="{FFBD7E68-B9B6-49A7-BF76-86BA87756534}"/>
   </bookViews>
   <sheets>
     <sheet name="testdata" sheetId="1" r:id="rId1"/>
@@ -950,7 +950,7 @@
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1002,7 +1002,7 @@
         <v>15</v>
       </c>
       <c r="F2" s="2">
-        <v>45546</v>
+        <v>45566</v>
       </c>
       <c r="G2" t="s">
         <v>14</v>
@@ -1025,7 +1025,7 @@
         <v>15</v>
       </c>
       <c r="F3" s="2">
-        <v>45546</v>
+        <v>45566</v>
       </c>
       <c r="G3" t="s">
         <v>14</v>
@@ -1048,7 +1048,7 @@
         <v>15</v>
       </c>
       <c r="F4" s="2">
-        <v>45546</v>
+        <v>45566</v>
       </c>
       <c r="G4" t="s">
         <v>14</v>
@@ -1071,7 +1071,7 @@
         <v>15</v>
       </c>
       <c r="F5" s="2">
-        <v>45546</v>
+        <v>45566</v>
       </c>
       <c r="G5" t="s">
         <v>14</v>
@@ -1094,7 +1094,7 @@
         <v>15</v>
       </c>
       <c r="F6" s="2">
-        <v>45546</v>
+        <v>45566</v>
       </c>
       <c r="G6" t="s">
         <v>14</v>
@@ -1117,7 +1117,7 @@
         <v>15</v>
       </c>
       <c r="F7" s="2">
-        <v>45546</v>
+        <v>45566</v>
       </c>
       <c r="G7" t="s">
         <v>14</v>
@@ -1140,7 +1140,7 @@
         <v>15</v>
       </c>
       <c r="F8" s="2">
-        <v>45547</v>
+        <v>45567</v>
       </c>
       <c r="G8" t="s">
         <v>14</v>
@@ -1163,7 +1163,7 @@
         <v>15</v>
       </c>
       <c r="F9" s="2">
-        <v>45547</v>
+        <v>45567</v>
       </c>
       <c r="G9" t="s">
         <v>14</v>
@@ -1186,7 +1186,7 @@
         <v>15</v>
       </c>
       <c r="F10" s="2">
-        <v>45547</v>
+        <v>45567</v>
       </c>
       <c r="G10" t="s">
         <v>14</v>
@@ -1209,7 +1209,7 @@
         <v>15</v>
       </c>
       <c r="F11" s="2">
-        <v>45547</v>
+        <v>45567</v>
       </c>
       <c r="G11" t="s">
         <v>14</v>
@@ -1232,7 +1232,7 @@
         <v>15</v>
       </c>
       <c r="F12" s="2">
-        <v>45547</v>
+        <v>45567</v>
       </c>
       <c r="G12" t="s">
         <v>14</v>
@@ -1255,7 +1255,7 @@
         <v>15</v>
       </c>
       <c r="F13" s="2">
-        <v>45547</v>
+        <v>45567</v>
       </c>
       <c r="G13" t="s">
         <v>14</v>
@@ -1278,7 +1278,7 @@
         <v>15</v>
       </c>
       <c r="F14" s="2">
-        <v>45548</v>
+        <v>45568</v>
       </c>
       <c r="G14" t="s">
         <v>14</v>
@@ -1301,7 +1301,7 @@
         <v>15</v>
       </c>
       <c r="F15" s="2">
-        <v>45548</v>
+        <v>45568</v>
       </c>
       <c r="G15" t="s">
         <v>14</v>
@@ -1324,7 +1324,7 @@
         <v>15</v>
       </c>
       <c r="F16" s="2">
-        <v>45548</v>
+        <v>45568</v>
       </c>
       <c r="G16" t="s">
         <v>14</v>
@@ -1347,7 +1347,7 @@
         <v>15</v>
       </c>
       <c r="F17" s="2">
-        <v>45548</v>
+        <v>45568</v>
       </c>
       <c r="G17" t="s">
         <v>14</v>
@@ -1370,7 +1370,7 @@
         <v>15</v>
       </c>
       <c r="F18" s="2">
-        <v>45548</v>
+        <v>45568</v>
       </c>
       <c r="G18" t="s">
         <v>14</v>
@@ -1393,7 +1393,7 @@
         <v>15</v>
       </c>
       <c r="F19" s="2">
-        <v>45548</v>
+        <v>45568</v>
       </c>
       <c r="G19" t="s">
         <v>14</v>

--- a/DRAFT/testdata-xls.xlsx
+++ b/DRAFT/testdata-xls.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\NATLIB-CL1\DRAFT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94B33A1D-BA71-4A35-AC91-1953A7FAC622}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCA769BB-4340-4334-8758-45D7561F32C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4545" yWindow="1905" windowWidth="21600" windowHeight="11385" xr2:uid="{FFBD7E68-B9B6-49A7-BF76-86BA87756534}"/>
+    <workbookView xWindow="1470" yWindow="1470" windowWidth="25560" windowHeight="13920" xr2:uid="{FFBD7E68-B9B6-49A7-BF76-86BA87756534}"/>
   </bookViews>
   <sheets>
     <sheet name="testdata" sheetId="1" r:id="rId1"/>
@@ -79,9 +79,6 @@
     <t>NIK Dokter</t>
   </si>
   <si>
-    <t>NIK</t>
-  </si>
-  <si>
     <t>ID Satu Sehat Poliklinik</t>
   </si>
   <si>
@@ -89,6 +86,9 @@
   </si>
   <si>
     <t>ICD</t>
+  </si>
+  <si>
+    <t>NIK Pasien</t>
   </si>
 </sst>
 </file>
@@ -950,7 +950,7 @@
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -967,7 +967,7 @@
         <v>16</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>17</v>
@@ -976,13 +976,13 @@
         <v>18</v>
       </c>
       <c r="E1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>21</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">

--- a/DRAFT/testdata-xls.xlsx
+++ b/DRAFT/testdata-xls.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\NATLIB-CL1\DRAFT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCA769BB-4340-4334-8758-45D7561F32C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94B33A1D-BA71-4A35-AC91-1953A7FAC622}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1470" yWindow="1470" windowWidth="25560" windowHeight="13920" xr2:uid="{FFBD7E68-B9B6-49A7-BF76-86BA87756534}"/>
+    <workbookView xWindow="4545" yWindow="1905" windowWidth="21600" windowHeight="11385" xr2:uid="{FFBD7E68-B9B6-49A7-BF76-86BA87756534}"/>
   </bookViews>
   <sheets>
     <sheet name="testdata" sheetId="1" r:id="rId1"/>
@@ -79,6 +79,9 @@
     <t>NIK Dokter</t>
   </si>
   <si>
+    <t>NIK</t>
+  </si>
+  <si>
     <t>ID Satu Sehat Poliklinik</t>
   </si>
   <si>
@@ -86,9 +89,6 @@
   </si>
   <si>
     <t>ICD</t>
-  </si>
-  <si>
-    <t>NIK Pasien</t>
   </si>
 </sst>
 </file>
@@ -950,7 +950,7 @@
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -967,7 +967,7 @@
         <v>16</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>17</v>
@@ -976,13 +976,13 @@
         <v>18</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">

--- a/DRAFT/testdata-xls.xlsx
+++ b/DRAFT/testdata-xls.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\NATLIB-CL1\DRAFT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94B33A1D-BA71-4A35-AC91-1953A7FAC622}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACA7A86D-5B1D-45FA-A162-3117D0798212}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4545" yWindow="1905" windowWidth="21600" windowHeight="11385" xr2:uid="{FFBD7E68-B9B6-49A7-BF76-86BA87756534}"/>
+    <workbookView xWindow="2730" yWindow="2280" windowWidth="25560" windowHeight="13920" xr2:uid="{FFBD7E68-B9B6-49A7-BF76-86BA87756534}"/>
   </bookViews>
   <sheets>
     <sheet name="testdata" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="25">
   <si>
     <t>Ardianto Putra</t>
   </si>
@@ -89,6 +89,12 @@
   </si>
   <si>
     <t>ICD</t>
+  </si>
+  <si>
+    <t>Ruang 1A Estetika</t>
+  </si>
+  <si>
+    <t>Ruang</t>
   </si>
 </sst>
 </file>
@@ -947,10 +953,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E6BE5CE-267B-4128-990C-75C5A191B774}">
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -960,9 +966,10 @@
     <col min="4" max="4" width="29" customWidth="1"/>
     <col min="5" max="5" width="37.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19.5703125" customWidth="1"/>
+    <col min="8" max="8" width="16.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>16</v>
       </c>
@@ -984,8 +991,11 @@
       <c r="G1" s="3" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H1" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -1002,13 +1012,16 @@
         <v>15</v>
       </c>
       <c r="F2" s="2">
-        <v>45566</v>
+        <v>45569</v>
       </c>
       <c r="G2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>0</v>
       </c>
@@ -1025,13 +1038,16 @@
         <v>15</v>
       </c>
       <c r="F3" s="2">
-        <v>45566</v>
+        <v>45569</v>
       </c>
       <c r="G3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>0</v>
       </c>
@@ -1048,13 +1064,16 @@
         <v>15</v>
       </c>
       <c r="F4" s="2">
-        <v>45566</v>
+        <v>45569</v>
       </c>
       <c r="G4" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>0</v>
       </c>
@@ -1071,13 +1090,16 @@
         <v>15</v>
       </c>
       <c r="F5" s="2">
-        <v>45566</v>
+        <v>45569</v>
       </c>
       <c r="G5" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>0</v>
       </c>
@@ -1094,13 +1116,16 @@
         <v>15</v>
       </c>
       <c r="F6" s="2">
-        <v>45566</v>
+        <v>45569</v>
       </c>
       <c r="G6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>0</v>
       </c>
@@ -1117,13 +1142,16 @@
         <v>15</v>
       </c>
       <c r="F7" s="2">
-        <v>45566</v>
+        <v>45569</v>
       </c>
       <c r="G7" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>0</v>
       </c>
@@ -1140,13 +1168,16 @@
         <v>15</v>
       </c>
       <c r="F8" s="2">
-        <v>45567</v>
+        <v>45570</v>
       </c>
       <c r="G8" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>0</v>
       </c>
@@ -1163,13 +1194,16 @@
         <v>15</v>
       </c>
       <c r="F9" s="2">
-        <v>45567</v>
+        <v>45570</v>
       </c>
       <c r="G9" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>0</v>
       </c>
@@ -1186,13 +1220,16 @@
         <v>15</v>
       </c>
       <c r="F10" s="2">
-        <v>45567</v>
+        <v>45570</v>
       </c>
       <c r="G10" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>0</v>
       </c>
@@ -1209,13 +1246,16 @@
         <v>15</v>
       </c>
       <c r="F11" s="2">
-        <v>45567</v>
+        <v>45570</v>
       </c>
       <c r="G11" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>0</v>
       </c>
@@ -1232,13 +1272,16 @@
         <v>15</v>
       </c>
       <c r="F12" s="2">
-        <v>45567</v>
+        <v>45570</v>
       </c>
       <c r="G12" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>0</v>
       </c>
@@ -1255,13 +1298,16 @@
         <v>15</v>
       </c>
       <c r="F13" s="2">
-        <v>45567</v>
+        <v>45570</v>
       </c>
       <c r="G13" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H13" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>0</v>
       </c>
@@ -1278,13 +1324,16 @@
         <v>15</v>
       </c>
       <c r="F14" s="2">
-        <v>45568</v>
+        <v>45571</v>
       </c>
       <c r="G14" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H14" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>0</v>
       </c>
@@ -1301,13 +1350,16 @@
         <v>15</v>
       </c>
       <c r="F15" s="2">
-        <v>45568</v>
+        <v>45571</v>
       </c>
       <c r="G15" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>0</v>
       </c>
@@ -1324,13 +1376,16 @@
         <v>15</v>
       </c>
       <c r="F16" s="2">
-        <v>45568</v>
+        <v>45571</v>
       </c>
       <c r="G16" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H16" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>0</v>
       </c>
@@ -1347,13 +1402,16 @@
         <v>15</v>
       </c>
       <c r="F17" s="2">
-        <v>45568</v>
+        <v>45571</v>
       </c>
       <c r="G17" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H17" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>0</v>
       </c>
@@ -1370,13 +1428,16 @@
         <v>15</v>
       </c>
       <c r="F18" s="2">
-        <v>45568</v>
+        <v>45571</v>
       </c>
       <c r="G18" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H18" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>0</v>
       </c>
@@ -1393,10 +1454,13 @@
         <v>15</v>
       </c>
       <c r="F19" s="2">
-        <v>45568</v>
+        <v>45571</v>
       </c>
       <c r="G19" t="s">
         <v>14</v>
+      </c>
+      <c r="H19" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
